--- a/Transition (example).xlsx
+++ b/Transition (example).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u6551511_anu_edu_au/Documents/ACT education/Education Paper/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10483611DA59765ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA0EDC85-57BF-46CF-810C-8D4B9D829C61}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="11_F25DC773A252ABDACC10483611DA59765ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F849B8-5A63-B14C-B449-E1EFB39255B2}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="52">
   <si>
     <t>Majura Primary School</t>
   </si>
@@ -33,9 +33,6 @@
     <t>00B</t>
   </si>
   <si>
-    <t>Downer</t>
-  </si>
-  <si>
     <t>North Canberra</t>
   </si>
   <si>
@@ -66,36 +63,6 @@
     <t>Year 7</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>SchoolName</t>
-  </si>
-  <si>
-    <t>AcademicLevel</t>
-  </si>
-  <si>
-    <t>Home.Suburb</t>
-  </si>
-  <si>
-    <t>HomeRegion</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>SCH.pre</t>
-  </si>
-  <si>
-    <t>ACL.pre</t>
-  </si>
-  <si>
-    <t>SUB.pre</t>
-  </si>
-  <si>
-    <t>REG.pre</t>
-  </si>
-  <si>
     <t>Ainslie School</t>
   </si>
   <si>
@@ -129,32 +96,119 @@
     <t>B</t>
   </si>
   <si>
-    <t>4. Student B was in Ainslie School in Year 5 and moved to Year 6 in the same school.</t>
-  </si>
-  <si>
-    <t>5. Student B progressed from Ainslie School to Merici College for Year 7 in 2011</t>
-  </si>
-  <si>
-    <t>1. Student A living in Downer entered preschool in Majura Primary School in 2010.</t>
-  </si>
-  <si>
-    <t>2. Student A contintued in Majura Primary School for Kindergarten in 2011.</t>
-  </si>
-  <si>
-    <t>3. Student A progressed from Majura Primary School to Lyneham High School for Year 7 in 2018.</t>
-  </si>
-  <si>
-    <t>6. Student B grauated from Merici College (or left ACT school system) in 2017.</t>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Student B progressed from Ainslie School to Merici College for Year 7 in 2011</t>
+  </si>
+  <si>
+    <t>Student B migrated to Ainslie outside of the ACT system and attended Year 5 in Ainslie School in 2010</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Red Hill Primary School</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Red Hill</t>
+  </si>
+  <si>
+    <t>Student A living in Downer entered preschool in Majura Primary School in 2014</t>
+  </si>
+  <si>
+    <t>Student A contintued in Majura Primary School for Kindergarten in 2015</t>
+  </si>
+  <si>
+    <t>Student A progressed from Majura Primary School to Lyneham High School for Year 7 in 2022</t>
+  </si>
+  <si>
+    <t>Student C migrated to Kingston outside of the ACT system and attended Year 2 in Red Hill Primary School in 2016</t>
+  </si>
+  <si>
+    <t>South Canberra</t>
+  </si>
+  <si>
+    <t>Student C moved home from Kingston to Red Hill remaining in Red Hill Primary School</t>
+  </si>
+  <si>
+    <t>ACL.pre 
+(Academic level in previous year)</t>
+  </si>
+  <si>
+    <t>SUB.pre
+(Home sububr in previous year)</t>
+  </si>
+  <si>
+    <t>REG.pre
+(Home region in previous year)</t>
+  </si>
+  <si>
+    <t>ID
+(unique student ID)</t>
+  </si>
+  <si>
+    <t>Year
+(Current year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCH.pre 
+(School in previous year)
+</t>
+  </si>
+  <si>
+    <t>AcademicLevel
+(Current academic level)</t>
+  </si>
+  <si>
+    <t>Home.Suburb
+(Current home suburb)</t>
+  </si>
+  <si>
+    <t>HomeRegion
+(Current home region)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SchoolName
+(Current school)
+</t>
+  </si>
+  <si>
+    <t>Student C had left ACT school system in 2020 after Year 5</t>
+  </si>
+  <si>
+    <t>Student B had grauated from Merici College (or had left ACT school system) in 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,8 +236,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,67 +522,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
-    <col min="13" max="13" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -532,19 +592,19 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -553,512 +613,677 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2015</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>2011</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2016</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2012</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2017</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2013</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2018</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2014</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>2015</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2016</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2017</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>2018</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
+      <c r="I10" t="s">
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="F11">
         <v>2010</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>2011</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>2012</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
+    </row>
+    <row r="14" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>2013</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>2014</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>2015</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>2016</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>2017</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="M18" t="s">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2018</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>2016</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>2017</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>2018</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>2019</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>2020</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>